--- a/DATASET.xlsx
+++ b/DATASET.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\FSE22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\FSE22GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB7A4B0-8D40-462B-9195-D72AA4F67B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E481E-348B-495B-BD17-0C72F2FBC84B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{99B2639D-B8F3-4651-8E6B-5E537374E9CB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="1" xr2:uid="{99B2639D-B8F3-4651-8E6B-5E537374E9CB}"/>
   </bookViews>
   <sheets>
     <sheet name="QVM Cost" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>SATISFY</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t>Seconds</t>
+  </si>
+  <si>
+    <t>// (Copyright) Author: anonymousresearxer</t>
+  </si>
+  <si>
+    <t>// Date created: 17/03/2022</t>
+  </si>
+  <si>
+    <t>// File name: DATASET.xlsx</t>
+  </si>
+  <si>
+    <t>// Version: Excel 2019 Pro</t>
+  </si>
+  <si>
+    <t>// Description: Scalability Measurements of submission FSE'22 1179</t>
   </si>
 </sst>
 </file>
@@ -481,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A32DAC4-3718-42A6-9F78-0628D2C05B5E}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,6 +819,31 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -812,10 +852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E737DB-320C-4585-A04B-1D96E7556255}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1050,6 +1090,31 @@
         <v>0.16142857142857145</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
